--- a/header_footer/pipelines/tables.xlsx
+++ b/header_footer/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/header_footer/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B27420A-0942-9449-A84B-DDEEC9BC5C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9768DF53-BB83-BD4C-A8FB-5BDA776F26BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>stage</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>base_audit</t>
-  </si>
-  <si>
-    <t>yetl_control_ad_works_lt</t>
   </si>
   <si>
     <t>yetl_control_header_footer</t>
@@ -354,25 +351,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,60 +722,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="24" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="24" t="s">
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="27" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="27"/>
+      <c r="W1" s="28"/>
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="11" t="s">
         <v>21</v>
       </c>
@@ -846,7 +843,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -879,14 +876,14 @@
         <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -925,7 +922,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M5" s="6">
         <v>168</v>
@@ -939,10 +936,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -954,10 +951,10 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -968,10 +965,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
@@ -982,16 +979,16 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>25</v>
@@ -1020,17 +1017,17 @@
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>25</v>
@@ -1059,17 +1056,17 @@
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>25</v>
@@ -1098,17 +1095,17 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>25</v>
@@ -1137,17 +1134,17 @@
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>25</v>
@@ -1176,17 +1173,17 @@
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>25</v>
@@ -1215,17 +1212,17 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>48</v>
+      <c r="G15" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>25</v>
@@ -1690,17 +1687,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="V1:W1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/header_footer/pipelines/tables.xlsx
+++ b/header_footer/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/header_footer/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9768DF53-BB83-BD4C-A8FB-5BDA776F26BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFB0C51-BB6A-C146-9FDB-FF7590C7D32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -182,11 +182,11 @@
     <t>raw.yetl_raw_header_footer.*</t>
   </si>
   <si>
-    <t>base.yetl_base_header_footer.*</t>
-  </si>
-  <si>
     <t>raw.yetl_raw_header_footer.*
 audit_control.yetl_control_header_footer.header_footer</t>
+  </si>
+  <si>
+    <t>header_footer</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -843,7 +843,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -865,7 +865,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="5"/>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -876,14 +876,14 @@
         <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -916,13 +916,13 @@
         <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="6">
         <v>168</v>

--- a/header_footer/pipelines/tables.xlsx
+++ b/header_footer/pipelines/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/header_footer/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFB0C51-BB6A-C146-9FDB-FF7590C7D32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1583C9B4-3A66-FE4C-B576-76BB585CADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>stage</t>
   </si>
@@ -56,9 +56,6 @@
     <t>warning_thresholds</t>
   </si>
   <si>
-    <t>error_thresholds</t>
-  </si>
-  <si>
     <t>custom_properties</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>max_rows</t>
-  </si>
-  <si>
-    <t>mins_rows</t>
   </si>
   <si>
     <t>process_group</t>
@@ -187,6 +181,15 @@
   </si>
   <si>
     <t>header_footer</t>
+  </si>
+  <si>
+    <t>min_rows</t>
+  </si>
+  <si>
+    <t>exception_thresholds</t>
+  </si>
+  <si>
+    <t>catalog</t>
   </si>
 </sst>
 </file>
@@ -354,16 +357,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -685,1019 +688,1085 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BE862-6320-9C46-8273-3C68143DBB4D}">
-  <dimension ref="A1:X63"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="16" style="2"/>
+    <col min="3" max="3" width="9.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="16" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="27"/>
+      <c r="I1" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="27"/>
+      <c r="O1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="23" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="28" t="s">
+      <c r="X1" s="28"/>
+    </row>
+    <row r="2" spans="1:25" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="28"/>
-    </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="11" t="s">
+      <c r="P2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="6">
+      <c r="M3" s="3"/>
+      <c r="N3" s="6">
         <v>168</v>
       </c>
-      <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="5"/>
-    </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="V3" s="5"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="5"/>
+    </row>
+    <row r="4" spans="1:25" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="6">
+      <c r="M4" s="3"/>
+      <c r="N4" s="6">
         <v>168</v>
       </c>
-      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="5"/>
-    </row>
-    <row r="5" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="V4" s="5"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="5"/>
+    </row>
+    <row r="5" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="6">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="6">
+        <v>168</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="18">
+        <v>1</v>
+      </c>
+      <c r="X9" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="E10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="6">
         <v>168</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T10" s="2">
         <v>2</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V10" s="2">
         <v>1</v>
       </c>
-      <c r="V9" s="18">
+      <c r="W10" s="18">
         <v>1</v>
       </c>
-      <c r="W9" s="16">
+      <c r="X10" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="6">
-        <v>168</v>
-      </c>
-      <c r="S10" s="2">
-        <v>2</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-      <c r="V10" s="18">
-        <v>1</v>
-      </c>
-      <c r="W10" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="6">
+        <v>168</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1</v>
+      </c>
+      <c r="W11" s="18">
+        <v>1</v>
+      </c>
+      <c r="X11" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="6">
+        <v>168</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>1</v>
+      </c>
+      <c r="W12" s="18">
+        <v>1</v>
+      </c>
+      <c r="X12" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="6">
+        <v>168</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1</v>
+      </c>
+      <c r="W13" s="18">
+        <v>1</v>
+      </c>
+      <c r="X13" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="6">
+        <v>168</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1</v>
+      </c>
+      <c r="W14" s="18">
+        <v>1</v>
+      </c>
+      <c r="X14" s="16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="M15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="6">
         <v>168</v>
       </c>
-      <c r="S11" s="2">
-        <v>2</v>
-      </c>
-      <c r="U11" s="2">
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
         <v>1</v>
       </c>
-      <c r="V11" s="18">
+      <c r="W15" s="18">
         <v>1</v>
       </c>
-      <c r="W11" s="16">
+      <c r="X15" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="6">
-        <v>168</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>1</v>
-      </c>
-      <c r="V12" s="18">
-        <v>1</v>
-      </c>
-      <c r="W12" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="6">
-        <v>168</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>1</v>
-      </c>
-      <c r="V13" s="18">
-        <v>1</v>
-      </c>
-      <c r="W13" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="6">
-        <v>168</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>1</v>
-      </c>
-      <c r="V14" s="18">
-        <v>1</v>
-      </c>
-      <c r="W14" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="6">
-        <v>168</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>1</v>
-      </c>
-      <c r="V15" s="18">
-        <v>1</v>
-      </c>
-      <c r="W15" s="16">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="21"/>
-      <c r="F16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="6"/>
-      <c r="V16" s="18"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="21"/>
+      <c r="G16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="6"/>
+      <c r="W16" s="18"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="21"/>
-      <c r="F17" s="19"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="6"/>
-      <c r="V17" s="18"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C17" s="3"/>
+      <c r="D17" s="21"/>
+      <c r="G17" s="19"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="6"/>
+      <c r="W17" s="18"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="21"/>
-      <c r="F18" s="19"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="6"/>
-      <c r="V18" s="18"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C18" s="3"/>
+      <c r="D18" s="21"/>
+      <c r="G18" s="19"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="6"/>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="21"/>
-      <c r="F19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="6"/>
-      <c r="V19" s="18"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C19" s="3"/>
+      <c r="D19" s="21"/>
+      <c r="G19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="6"/>
+      <c r="W19" s="18"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="21"/>
-      <c r="F20" s="19"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="6"/>
-      <c r="V20" s="18"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C20" s="3"/>
+      <c r="D20" s="21"/>
+      <c r="G20" s="19"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="6"/>
+      <c r="W20" s="18"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="21"/>
-      <c r="F21" s="20"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="6"/>
-      <c r="V21" s="18"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C21" s="3"/>
+      <c r="D21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="6"/>
+      <c r="W21" s="18"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="21"/>
-      <c r="F22" s="20"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="6"/>
-      <c r="V22" s="18"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C22" s="3"/>
+      <c r="D22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="6"/>
+      <c r="W22" s="18"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="21"/>
-      <c r="F23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="6"/>
-      <c r="V23" s="18"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C23" s="3"/>
+      <c r="D23" s="21"/>
+      <c r="G23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="6"/>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="21"/>
-      <c r="F24" s="19"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="6"/>
-      <c r="V24" s="18"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C24" s="3"/>
+      <c r="D24" s="21"/>
+      <c r="G24" s="19"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="6"/>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="21"/>
-      <c r="F25" s="20"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="6"/>
-      <c r="V25" s="18"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C25" s="3"/>
+      <c r="D25" s="21"/>
+      <c r="G25" s="20"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="6"/>
+      <c r="W25" s="18"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="21"/>
-      <c r="F26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="6"/>
-      <c r="V26" s="18"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C26" s="3"/>
+      <c r="D26" s="21"/>
+      <c r="G26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="6"/>
+      <c r="W26" s="18"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="21"/>
-      <c r="F27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="6"/>
-      <c r="V27" s="18"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C27" s="3"/>
+      <c r="D27" s="21"/>
+      <c r="G27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="6"/>
+      <c r="W27" s="18"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="21"/>
-      <c r="F28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="6"/>
-      <c r="V28" s="18"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C28" s="3"/>
+      <c r="D28" s="21"/>
+      <c r="G28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="6"/>
+      <c r="W28" s="18"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="21"/>
-      <c r="F29" s="19"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="6"/>
-      <c r="V29" s="18"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C29" s="3"/>
+      <c r="D29" s="21"/>
+      <c r="G29" s="19"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="6"/>
+      <c r="W29" s="18"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="21"/>
-      <c r="F30" s="19"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="6"/>
-      <c r="V30" s="18"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C30" s="3"/>
+      <c r="D30" s="21"/>
+      <c r="G30" s="19"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="6"/>
+      <c r="W30" s="18"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="21"/>
-      <c r="F31" s="19"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="6"/>
-      <c r="V31" s="18"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C31" s="3"/>
+      <c r="D31" s="21"/>
+      <c r="G31" s="19"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="6"/>
+      <c r="W31" s="18"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="21"/>
-      <c r="F32" s="19"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="6"/>
-      <c r="V32" s="18"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C32" s="3"/>
+      <c r="D32" s="21"/>
+      <c r="G32" s="19"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="6"/>
+      <c r="W32" s="18"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="21"/>
-      <c r="F33" s="19"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="6"/>
-      <c r="V33" s="18"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C33" s="3"/>
+      <c r="D33" s="21"/>
+      <c r="G33" s="19"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="6"/>
+      <c r="W33" s="18"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="21"/>
-      <c r="F34" s="19"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="6"/>
-      <c r="V34" s="18"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C34" s="3"/>
+      <c r="D34" s="21"/>
+      <c r="G34" s="19"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="6"/>
+      <c r="W34" s="18"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="21"/>
-      <c r="F35" s="19"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="6"/>
-      <c r="V35" s="18"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C35" s="3"/>
+      <c r="D35" s="21"/>
+      <c r="G35" s="19"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="6"/>
+      <c r="W35" s="18"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="21"/>
-      <c r="F36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="6"/>
-      <c r="V36" s="18"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C36" s="3"/>
+      <c r="D36" s="21"/>
+      <c r="G36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="6"/>
+      <c r="W36" s="18"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="21"/>
-      <c r="F37" s="19"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="6"/>
-      <c r="V37" s="18"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C37" s="3"/>
+      <c r="D37" s="21"/>
+      <c r="G37" s="19"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="6"/>
+      <c r="W37" s="18"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="21"/>
-      <c r="F38" s="20"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="6"/>
-      <c r="V38" s="18"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C38" s="3"/>
+      <c r="D38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="6"/>
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="21"/>
-      <c r="F39" s="19"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="6"/>
-      <c r="V39" s="18"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C39" s="3"/>
+      <c r="D39" s="21"/>
+      <c r="G39" s="19"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="6"/>
+      <c r="W39" s="18"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="21"/>
-      <c r="F40" s="19"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="6"/>
-      <c r="V40" s="18"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C40" s="3"/>
+      <c r="D40" s="21"/>
+      <c r="G40" s="19"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="6"/>
+      <c r="W40" s="18"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="21"/>
-      <c r="F41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="6"/>
-      <c r="V41" s="18"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C41" s="3"/>
+      <c r="D41" s="21"/>
+      <c r="G41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="6"/>
+      <c r="W41" s="18"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="21"/>
-      <c r="F42" s="20"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="6"/>
-      <c r="V42" s="18"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
+      <c r="D42" s="21"/>
+      <c r="G42" s="20"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="6"/>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="21"/>
-      <c r="F43" s="19"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="6"/>
-      <c r="V43" s="18"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C43" s="3"/>
+      <c r="D43" s="21"/>
+      <c r="G43" s="19"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="6"/>
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="21"/>
-      <c r="F44" s="19"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="6"/>
-      <c r="V44" s="18"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C44" s="3"/>
+      <c r="D44" s="21"/>
+      <c r="G44" s="19"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="6"/>
+      <c r="W44" s="18"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="21"/>
-      <c r="F45" s="19"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="6"/>
-      <c r="V45" s="18"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C45" s="3"/>
+      <c r="D45" s="21"/>
+      <c r="G45" s="19"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="6"/>
+      <c r="W45" s="18"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="21"/>
-      <c r="F46" s="19"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="6"/>
-      <c r="V46" s="18"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C46" s="3"/>
+      <c r="D46" s="21"/>
+      <c r="G46" s="19"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="6"/>
+      <c r="W46" s="18"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="21"/>
-      <c r="F47" s="20"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="6"/>
-      <c r="V47" s="18"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C47" s="3"/>
+      <c r="D47" s="21"/>
+      <c r="G47" s="20"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="6"/>
+      <c r="W47" s="18"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="21"/>
-      <c r="F48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="6"/>
-      <c r="V48" s="18"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C48" s="3"/>
+      <c r="D48" s="21"/>
+      <c r="G48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="6"/>
+      <c r="W48" s="18"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="21"/>
-      <c r="F49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="6"/>
-      <c r="V49" s="18"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C49" s="3"/>
+      <c r="D49" s="21"/>
+      <c r="G49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="6"/>
+      <c r="W49" s="18"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="21"/>
-      <c r="F50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="6"/>
-      <c r="V50" s="18"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C50" s="3"/>
+      <c r="D50" s="21"/>
+      <c r="G50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="6"/>
+      <c r="W50" s="18"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="21"/>
-      <c r="F51" s="19"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="6"/>
-      <c r="V51" s="18"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C51" s="3"/>
+      <c r="D51" s="21"/>
+      <c r="G51" s="19"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="6"/>
+      <c r="W51" s="18"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="21"/>
-      <c r="F52" s="20"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="6"/>
-      <c r="V52" s="18"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C52" s="3"/>
+      <c r="D52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="6"/>
+      <c r="W52" s="18"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="21"/>
-      <c r="F53" s="19"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="6"/>
-      <c r="V53" s="18"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C53" s="3"/>
+      <c r="D53" s="21"/>
+      <c r="G53" s="19"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="6"/>
+      <c r="W53" s="18"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="21"/>
-      <c r="F54" s="19"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="6"/>
-      <c r="V54" s="18"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C54" s="3"/>
+      <c r="D54" s="21"/>
+      <c r="G54" s="19"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="6"/>
+      <c r="W54" s="18"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="21"/>
-      <c r="F55" s="19"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="6"/>
-      <c r="V55" s="18"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C55" s="3"/>
+      <c r="D55" s="21"/>
+      <c r="G55" s="19"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="6"/>
+      <c r="W55" s="18"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="21"/>
-      <c r="F56" s="20"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="6"/>
-      <c r="V56" s="18"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C56" s="3"/>
+      <c r="D56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="6"/>
+      <c r="W56" s="18"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="21"/>
-      <c r="F57" s="19"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="6"/>
-      <c r="V57" s="18"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C57" s="3"/>
+      <c r="D57" s="21"/>
+      <c r="G57" s="19"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="6"/>
+      <c r="W57" s="18"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="21"/>
-      <c r="F58" s="19"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="6"/>
-      <c r="V58" s="18"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C58" s="3"/>
+      <c r="D58" s="21"/>
+      <c r="G58" s="19"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="6"/>
+      <c r="W58" s="18"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="21"/>
-      <c r="F59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="6"/>
-      <c r="V59" s="18"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C59" s="3"/>
+      <c r="D59" s="21"/>
+      <c r="G59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="6"/>
+      <c r="W59" s="18"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="21"/>
-      <c r="F60" s="19"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="6"/>
-      <c r="V60" s="18"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C60" s="3"/>
+      <c r="D60" s="21"/>
+      <c r="G60" s="19"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="6"/>
+      <c r="W60" s="18"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="21"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="6"/>
-      <c r="V61" s="18"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="3"/>
+      <c r="D61" s="21"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="6"/>
+      <c r="W61" s="18"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="6"/>
+      <c r="M63" s="3"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="8"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
-      <c r="V63" s="15"/>
-      <c r="W63" s="17"/>
-      <c r="X63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="12">
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/header_footer/pipelines/tables.xlsx
+++ b/header_footer/pipelines/tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/header_footer/pipelines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/header_footer_uc/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1583C9B4-3A66-FE4C-B576-76BB585CADF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D61E5BF-B116-4B43-BD5F-2B11801D2487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>stage</t>
   </si>
@@ -131,9 +131,6 @@
     <t>base_audit</t>
   </si>
   <si>
-    <t>yetl_control_header_footer</t>
-  </si>
-  <si>
     <t>customer_details_1</t>
   </si>
   <si>
@@ -143,53 +140,59 @@
     <t>customer_preferences</t>
   </si>
   <si>
-    <t>yetl_landing_header_footer</t>
-  </si>
-  <si>
-    <t>yetl_raw_header_footer</t>
-  </si>
-  <si>
     <t>customers</t>
   </si>
   <si>
-    <t>yetl_base_header_footer</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_header_footer.customer_details_1</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_header_footer.customer_details_2</t>
-  </si>
-  <si>
-    <t>raw.yetl_raw_header_footer.customer_details_1</t>
-  </si>
-  <si>
-    <t>raw.yetl_raw_header_footer.customer_details_2</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_header_footer.customer_preferences</t>
-  </si>
-  <si>
-    <t>raw.yetl_raw_header_footer.customer_preferences</t>
-  </si>
-  <si>
-    <t>raw.yetl_raw_header_footer.*</t>
-  </si>
-  <si>
-    <t>raw.yetl_raw_header_footer.*
-audit_control.yetl_control_header_footer.header_footer</t>
-  </si>
-  <si>
     <t>header_footer</t>
   </si>
   <si>
+    <t>catalog</t>
+  </si>
+  <si>
     <t>min_rows</t>
   </si>
   <si>
     <t>exception_thresholds</t>
   </si>
   <si>
-    <t>catalog</t>
+    <t>development</t>
+  </si>
+  <si>
+    <t>yetl_control_header_footer_uc</t>
+  </si>
+  <si>
+    <t>yetl_landing_header_footer_uc</t>
+  </si>
+  <si>
+    <t>yetl_raw_header_footer_uc</t>
+  </si>
+  <si>
+    <t>yetl_base_header_footer_uc</t>
+  </si>
+  <si>
+    <t>raw.yetl_raw_header_footer_uc.*
+audit_control.yetl_control_header_footer_uc.header_footer</t>
+  </si>
+  <si>
+    <t>raw.yetl_raw_header_footer_uc.*</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_header_footer_uc.customer_details_1</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_header_footer_uc.customer_details_2</t>
+  </si>
+  <si>
+    <t>landing.yetl_landing_header_footer_uc.customer_preferences</t>
+  </si>
+  <si>
+    <t>raw.yetl_raw_header_footer_uc.customer_details_1</t>
+  </si>
+  <si>
+    <t>raw.yetl_raw_header_footer_uc.customer_details_2</t>
+  </si>
+  <si>
+    <t>raw.yetl_raw_header_footer_uc.customer_preferences</t>
   </si>
 </sst>
 </file>
@@ -357,16 +360,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -692,14 +695,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" style="2" bestFit="1" customWidth="1"/>
@@ -726,28 +729,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="C1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="27" t="s">
@@ -758,32 +761,32 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
       <c r="W1" s="28" t="s">
         <v>6</v>
       </c>
       <c r="X1" s="28"/>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="11" t="s">
         <v>19</v>
       </c>
@@ -812,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>7</v>
@@ -824,7 +827,7 @@
         <v>9</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="W2" s="12" t="s">
         <v>10</v>
@@ -833,16 +836,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -852,7 +857,7 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -881,9 +886,11 @@
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>30</v>
@@ -922,12 +929,14 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>21</v>
@@ -946,12 +955,14 @@
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -962,12 +973,14 @@
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -977,12 +990,14 @@
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.2">
@@ -992,18 +1007,20 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>23</v>
@@ -1031,19 +1048,21 @@
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>23</v>
@@ -1071,19 +1090,21 @@
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>23</v>
@@ -1111,19 +1132,21 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>23</v>
@@ -1151,19 +1174,21 @@
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>23</v>
@@ -1191,19 +1216,21 @@
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>23</v>
@@ -1231,12 +1258,14 @@
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
@@ -1755,11 +1784,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="W1:X1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -1767,6 +1791,11 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/header_footer/pipelines/tables.xlsx
+++ b/header_footer/pipelines/tables.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/databricks-patterns/header_footer_uc/pipelines/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaunryan/python/databricks-patterns/header_footer/pipelines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D61E5BF-B116-4B43-BD5F-2B11801D2487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDC5345-2FA9-0443-8B50-34BA8ADC9405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{EF8CC655-0BC7-D149-95AE-B93FEDAFD6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="53">
   <si>
     <t>stage</t>
   </si>
@@ -158,41 +161,44 @@
     <t>development</t>
   </si>
   <si>
-    <t>yetl_control_header_footer_uc</t>
-  </si>
-  <si>
-    <t>yetl_landing_header_footer_uc</t>
-  </si>
-  <si>
-    <t>yetl_raw_header_footer_uc</t>
-  </si>
-  <si>
-    <t>yetl_base_header_footer_uc</t>
-  </si>
-  <si>
-    <t>raw.yetl_raw_header_footer_uc.*
-audit_control.yetl_control_header_footer_uc.header_footer</t>
-  </si>
-  <si>
-    <t>raw.yetl_raw_header_footer_uc.*</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_header_footer_uc.customer_details_1</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_header_footer_uc.customer_details_2</t>
-  </si>
-  <si>
-    <t>landing.yetl_landing_header_footer_uc.customer_preferences</t>
-  </si>
-  <si>
-    <t>raw.yetl_raw_header_footer_uc.customer_details_1</t>
-  </si>
-  <si>
-    <t>raw.yetl_raw_header_footer_uc.customer_details_2</t>
-  </si>
-  <si>
-    <t>raw.yetl_raw_header_footer_uc.customer_preferences</t>
+    <t>control_header_footer</t>
+  </si>
+  <si>
+    <t>raw.raw_header_footer.*
+audit_control.control_header_footer.header_footer</t>
+  </si>
+  <si>
+    <t>raw.raw_header_footer.*</t>
+  </si>
+  <si>
+    <t>landing_header_footer</t>
+  </si>
+  <si>
+    <t>raw_header_footer</t>
+  </si>
+  <si>
+    <t>landing.landing_header_footer.customer_details_1</t>
+  </si>
+  <si>
+    <t>landing.landing_header_footer.customer_details_2</t>
+  </si>
+  <si>
+    <t>landing.landing_header_footer.customer_preferences</t>
+  </si>
+  <si>
+    <t>base_header_footer</t>
+  </si>
+  <si>
+    <t>raw.raw_header_footer.customer_details_1</t>
+  </si>
+  <si>
+    <t>raw.raw_header_footer.customer_details_2</t>
+  </si>
+  <si>
+    <t>raw.raw_header_footer.customer_preferences</t>
+  </si>
+  <si>
+    <t>cluster_by</t>
   </si>
 </sst>
 </file>
@@ -360,16 +366,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -691,11 +697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4BE862-6320-9C46-8273-3C68143DBB4D}">
-  <dimension ref="A1:Y63"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -711,46 +717,47 @@
     <col min="9" max="9" width="34.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="16" style="2"/>
+    <col min="12" max="12" width="11" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="16" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="27" t="s">
@@ -761,32 +768,33 @@
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="27"/>
+      <c r="P1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="23" t="s">
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="28" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="28"/>
-    </row>
-    <row r="2" spans="1:25" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="Y1" s="28"/>
+    </row>
+    <row r="2" spans="1:26" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="11" t="s">
         <v>19</v>
       </c>
@@ -797,46 +805,49 @@
         <v>26</v>
       </c>
       <c r="L2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="X2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -857,29 +868,30 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="6">
+      <c r="N3" s="3"/>
+      <c r="O3" s="6">
         <v>168</v>
       </c>
-      <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="7"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="5"/>
-    </row>
-    <row r="4" spans="1:25" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="W3" s="5"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -900,29 +912,30 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="6">
+      <c r="N4" s="3"/>
+      <c r="O4" s="6">
         <v>168</v>
       </c>
-      <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="5"/>
-    </row>
-    <row r="5" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="W4" s="5"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -942,13 +955,13 @@
         <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="6">
+        <v>42</v>
+      </c>
+      <c r="O5" s="6">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -959,14 +972,14 @@
         <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -977,13 +990,13 @@
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -994,13 +1007,13 @@
         <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1011,7 +1024,7 @@
         <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
@@ -1020,28 +1033,28 @@
         <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <v>168</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>2</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <v>1</v>
       </c>
-      <c r="W9" s="18">
+      <c r="X9" s="18">
         <v>1</v>
       </c>
-      <c r="X9" s="16">
+      <c r="Y9" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1052,7 +1065,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>32</v>
@@ -1062,28 +1075,28 @@
         <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <v>168</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>2</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <v>1</v>
       </c>
-      <c r="W10" s="18">
+      <c r="X10" s="18">
         <v>1</v>
       </c>
-      <c r="X10" s="16">
+      <c r="Y10" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1094,7 +1107,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>33</v>
@@ -1104,28 +1117,28 @@
         <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>168</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>2</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <v>1</v>
       </c>
-      <c r="W11" s="18">
+      <c r="X11" s="18">
         <v>1</v>
       </c>
-      <c r="X11" s="16">
+      <c r="Y11" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1136,7 +1149,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>31</v>
@@ -1148,26 +1161,26 @@
       <c r="H12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <v>168</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>0</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <v>1</v>
       </c>
-      <c r="W12" s="18">
+      <c r="X12" s="18">
         <v>1</v>
       </c>
-      <c r="X12" s="16">
+      <c r="Y12" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1178,7 +1191,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>32</v>
@@ -1190,26 +1203,26 @@
       <c r="H13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <v>168</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U13" s="2">
         <v>0</v>
       </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
         <v>1</v>
       </c>
-      <c r="W13" s="18">
+      <c r="X13" s="18">
         <v>1</v>
       </c>
-      <c r="X13" s="16">
+      <c r="Y13" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1220,7 +1233,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>33</v>
@@ -1232,26 +1245,26 @@
       <c r="H14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>168</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <v>0</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
         <v>1</v>
       </c>
-      <c r="W14" s="18">
+      <c r="X14" s="18">
         <v>1</v>
       </c>
-      <c r="X14" s="16">
+      <c r="Y14" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1262,7 +1275,7 @@
         <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>34</v>
@@ -1272,490 +1285,490 @@
         <v>17</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <v>168</v>
       </c>
-      <c r="T15" s="2">
+      <c r="U15" s="2">
         <v>0</v>
       </c>
-      <c r="V15" s="2">
+      <c r="W15" s="2">
         <v>1</v>
       </c>
-      <c r="W15" s="18">
+      <c r="X15" s="18">
         <v>1</v>
       </c>
-      <c r="X15" s="16">
+      <c r="Y15" s="16">
         <v>365</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="21"/>
       <c r="G16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="6"/>
-      <c r="W16" s="18"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="6"/>
+      <c r="X16" s="18"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="21"/>
       <c r="G17" s="19"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="6"/>
-      <c r="W17" s="18"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+      <c r="O17" s="6"/>
+      <c r="X17" s="18"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="21"/>
       <c r="G18" s="19"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="6"/>
-      <c r="W18" s="18"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+      <c r="O18" s="6"/>
+      <c r="X18" s="18"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="21"/>
       <c r="G19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="6"/>
-      <c r="W19" s="18"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="6"/>
+      <c r="X19" s="18"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="21"/>
       <c r="G20" s="19"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="6"/>
-      <c r="W20" s="18"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+      <c r="O20" s="6"/>
+      <c r="X20" s="18"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="21"/>
       <c r="G21" s="20"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="6"/>
-      <c r="W21" s="18"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+      <c r="O21" s="6"/>
+      <c r="X21" s="18"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="21"/>
       <c r="G22" s="20"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="6"/>
-      <c r="W22" s="18"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+      <c r="O22" s="6"/>
+      <c r="X22" s="18"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="21"/>
       <c r="G23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="6"/>
-      <c r="W23" s="18"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+      <c r="O23" s="6"/>
+      <c r="X23" s="18"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="21"/>
       <c r="G24" s="19"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="6"/>
-      <c r="W24" s="18"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+      <c r="O24" s="6"/>
+      <c r="X24" s="18"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="21"/>
       <c r="G25" s="20"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="6"/>
-      <c r="W25" s="18"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N25" s="3"/>
+      <c r="O25" s="6"/>
+      <c r="X25" s="18"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="21"/>
       <c r="G26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="6"/>
-      <c r="W26" s="18"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+      <c r="O26" s="6"/>
+      <c r="X26" s="18"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="21"/>
       <c r="G27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="6"/>
-      <c r="W27" s="18"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+      <c r="O27" s="6"/>
+      <c r="X27" s="18"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="21"/>
       <c r="G28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="6"/>
-      <c r="W28" s="18"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N28" s="3"/>
+      <c r="O28" s="6"/>
+      <c r="X28" s="18"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="21"/>
       <c r="G29" s="19"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="6"/>
-      <c r="W29" s="18"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+      <c r="O29" s="6"/>
+      <c r="X29" s="18"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="21"/>
       <c r="G30" s="19"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="6"/>
-      <c r="W30" s="18"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N30" s="3"/>
+      <c r="O30" s="6"/>
+      <c r="X30" s="18"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="21"/>
       <c r="G31" s="19"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="6"/>
-      <c r="W31" s="18"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N31" s="3"/>
+      <c r="O31" s="6"/>
+      <c r="X31" s="18"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="21"/>
       <c r="G32" s="19"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="6"/>
-      <c r="W32" s="18"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+      <c r="O32" s="6"/>
+      <c r="X32" s="18"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="21"/>
       <c r="G33" s="19"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="6"/>
-      <c r="W33" s="18"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+      <c r="O33" s="6"/>
+      <c r="X33" s="18"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="21"/>
       <c r="G34" s="19"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="6"/>
-      <c r="W34" s="18"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N34" s="3"/>
+      <c r="O34" s="6"/>
+      <c r="X34" s="18"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="21"/>
       <c r="G35" s="19"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="6"/>
-      <c r="W35" s="18"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+      <c r="O35" s="6"/>
+      <c r="X35" s="18"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="21"/>
       <c r="G36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="6"/>
-      <c r="W36" s="18"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N36" s="3"/>
+      <c r="O36" s="6"/>
+      <c r="X36" s="18"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="21"/>
       <c r="G37" s="19"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="6"/>
-      <c r="W37" s="18"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N37" s="3"/>
+      <c r="O37" s="6"/>
+      <c r="X37" s="18"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="21"/>
       <c r="G38" s="20"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="6"/>
-      <c r="W38" s="18"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N38" s="3"/>
+      <c r="O38" s="6"/>
+      <c r="X38" s="18"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="21"/>
       <c r="G39" s="19"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="6"/>
-      <c r="W39" s="18"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="6"/>
+      <c r="X39" s="18"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="21"/>
       <c r="G40" s="19"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="6"/>
-      <c r="W40" s="18"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="6"/>
+      <c r="X40" s="18"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="21"/>
       <c r="G41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="6"/>
-      <c r="W41" s="18"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+      <c r="O41" s="6"/>
+      <c r="X41" s="18"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="21"/>
       <c r="G42" s="20"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="6"/>
-      <c r="W42" s="18"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+      <c r="O42" s="6"/>
+      <c r="X42" s="18"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="21"/>
       <c r="G43" s="19"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="6"/>
-      <c r="W43" s="18"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+      <c r="O43" s="6"/>
+      <c r="X43" s="18"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="21"/>
       <c r="G44" s="19"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="6"/>
-      <c r="W44" s="18"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+      <c r="O44" s="6"/>
+      <c r="X44" s="18"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="21"/>
       <c r="G45" s="19"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="6"/>
-      <c r="W45" s="18"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+      <c r="O45" s="6"/>
+      <c r="X45" s="18"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="21"/>
       <c r="G46" s="19"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="6"/>
-      <c r="W46" s="18"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+      <c r="O46" s="6"/>
+      <c r="X46" s="18"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="21"/>
       <c r="G47" s="20"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="6"/>
-      <c r="W47" s="18"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+      <c r="O47" s="6"/>
+      <c r="X47" s="18"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="21"/>
       <c r="G48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="6"/>
-      <c r="W48" s="18"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+      <c r="O48" s="6"/>
+      <c r="X48" s="18"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="21"/>
       <c r="G49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="6"/>
-      <c r="W49" s="18"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+      <c r="O49" s="6"/>
+      <c r="X49" s="18"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="21"/>
       <c r="G50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="6"/>
-      <c r="W50" s="18"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N50" s="3"/>
+      <c r="O50" s="6"/>
+      <c r="X50" s="18"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="21"/>
       <c r="G51" s="19"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="6"/>
-      <c r="W51" s="18"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N51" s="3"/>
+      <c r="O51" s="6"/>
+      <c r="X51" s="18"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="21"/>
       <c r="G52" s="20"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="6"/>
-      <c r="W52" s="18"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+      <c r="O52" s="6"/>
+      <c r="X52" s="18"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="21"/>
       <c r="G53" s="19"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="6"/>
-      <c r="W53" s="18"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N53" s="3"/>
+      <c r="O53" s="6"/>
+      <c r="X53" s="18"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="21"/>
       <c r="G54" s="19"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="6"/>
-      <c r="W54" s="18"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+      <c r="O54" s="6"/>
+      <c r="X54" s="18"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="21"/>
       <c r="G55" s="19"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="6"/>
-      <c r="W55" s="18"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="6"/>
+      <c r="X55" s="18"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="21"/>
       <c r="G56" s="20"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="6"/>
-      <c r="W56" s="18"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="6"/>
+      <c r="X56" s="18"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="21"/>
       <c r="G57" s="19"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="6"/>
-      <c r="W57" s="18"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+      <c r="O57" s="6"/>
+      <c r="X57" s="18"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="21"/>
       <c r="G58" s="19"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="6"/>
-      <c r="W58" s="18"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+      <c r="O58" s="6"/>
+      <c r="X58" s="18"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="21"/>
       <c r="G59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="6"/>
-      <c r="W59" s="18"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+      <c r="O59" s="6"/>
+      <c r="X59" s="18"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="21"/>
       <c r="G60" s="19"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="6"/>
-      <c r="W60" s="18"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+      <c r="O60" s="6"/>
+      <c r="X60" s="18"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="21"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="6"/>
-      <c r="W61" s="18"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+      <c r="O61" s="6"/>
+      <c r="X61" s="18"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1769,21 +1782,27 @@
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
-      <c r="N63" s="6"/>
+      <c r="N63" s="3"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="8"/>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
-      <c r="W63" s="15"/>
-      <c r="X63" s="17"/>
-      <c r="Y63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="15"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="X1:Y1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
@@ -1791,11 +1810,6 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
